--- a/config_6.29/act_ty_zp1_config.xlsx
+++ b/config_6.29/act_ty_zp1_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="779" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>"1.</t>
     </r>
     <r>
@@ -723,7 +729,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,106 +773,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,15 +789,92 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -904,90 +910,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -995,90 +1085,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,17 +1113,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,16 +1138,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,28 +1175,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,16 +1195,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,19 +1228,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1243,117 +1249,117 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1399,6 +1405,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1734,8 +1743,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1771,7 +1780,7 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1789,8 +1798,8 @@
     </row>
     <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="18"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
@@ -1849,13 +1858,13 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="20">
         <v>1624924800</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="20">
         <v>1627315199</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -2049,8 +2058,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2100,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <v>10565</v>
+        <v>10599</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>53</v>
@@ -2129,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>10566</v>
+        <v>10600</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>57</v>
@@ -2158,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>10567</v>
+        <v>10601</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>60</v>
@@ -2187,7 +2196,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>10568</v>
+        <v>10602</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>63</v>
@@ -2216,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9">
-        <v>10569</v>
+        <v>10603</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>66</v>
@@ -2245,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9">
-        <v>10570</v>
+        <v>10604</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>69</v>
